--- a/timelogs/TimeLogs.xlsx
+++ b/timelogs/TimeLogs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>TimeLogs of Team Nėmilimi</t>
   </si>
@@ -28,13 +28,25 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>5,5</t>
+    <t>Code cleanup, wrote sub-scripts</t>
   </si>
   <si>
-    <t>0,75</t>
+    <t>Trying to fix movement bug. Made breaking blocks look prettier, more player-like. Started implementing NPCs interactions with chests</t>
   </si>
   <si>
-    <t>Code cleanup, wrote subscripts</t>
+    <t>NPC interactions with chests, trying to use config files</t>
+  </si>
+  <si>
+    <t>Preparing presentation</t>
+  </si>
+  <si>
+    <t>Preparing report</t>
+  </si>
+  <si>
+    <t>Learning about yaml</t>
+  </si>
+  <si>
+    <t>Scripts can now read data from .yml config files</t>
   </si>
 </sst>
 </file>
@@ -44,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -57,20 +69,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,28 +93,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,8 +127,259 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Time of hours spent per day</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$121</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$121</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="76573198"/>
+        <c:axId val="1967213260"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76573198"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967213260"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967213260"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Time, hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76573198"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6115050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="16716375" cy="13201650"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -327,7 +587,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.29"/>
-    <col customWidth="1" min="3" max="3" width="84.71"/>
+    <col customWidth="1" min="3" max="3" width="135.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -353,116 +613,989 @@
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>44111.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>44088.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>44112.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>44089.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>44113.0</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+        <v>44090.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>44114.0</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+        <v>44091.0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>44115.0</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+        <v>44092.0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>44116.0</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+        <v>44093.0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>44117.0</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+        <v>44094.0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>44118.0</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+        <v>44095.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
+        <v>44096.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>44097.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>44098.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>44099.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4">
+        <v>44100.0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>44101.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>44102.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>44103.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>44104.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>44105.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>44106.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>44107.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>44108.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>44109.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>44110.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>44111.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>44112.0</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>44113.0</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>44114.0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>44115.0</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>44116.0</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4">
+        <v>44117.0</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4">
+        <v>44118.0</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4">
         <v>44119.0</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4">
+        <v>44120.0</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4">
+        <v>44121.0</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4">
+        <v>44122.0</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>44123.0</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4">
+        <v>44124.0</v>
+      </c>
+      <c r="B40" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4">
+        <v>44125.0</v>
+      </c>
+      <c r="B41" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4">
+        <v>44126.0</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4">
+        <v>44127.0</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4">
+        <v>44128.0</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4">
+        <v>44129.0</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4">
+        <v>44130.0</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4">
+        <v>44131.0</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4">
+        <v>44132.0</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4">
+        <v>44133.0</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4">
+        <v>44134.0</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4">
+        <v>44135.0</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4">
+        <v>44136.0</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4">
+        <v>44137.0</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4">
+        <v>44138.0</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4">
+        <v>44139.0</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4">
+        <v>44140.0</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4">
+        <v>44141.0</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4">
+        <v>44142.0</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4">
+        <v>44143.0</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4">
+        <v>44144.0</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4">
+        <v>44145.0</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4">
+        <v>44146.0</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4">
+        <v>44147.0</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4">
+        <v>44148.0</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4">
+        <v>44149.0</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4">
+        <v>44150.0</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4">
+        <v>44151.0</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4">
+        <v>44152.0</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4">
+        <v>44153.0</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4">
+        <v>44154.0</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4">
+        <v>44155.0</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4">
+        <v>44156.0</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4">
+        <v>44157.0</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4">
+        <v>44158.0</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4">
+        <v>44159.0</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4">
+        <v>44160.0</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4">
+        <v>44161.0</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4">
+        <v>44162.0</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4">
+        <v>44163.0</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4">
+        <v>44164.0</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4">
+        <v>44165.0</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4">
+        <v>44166.0</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4">
+        <v>44167.0</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4">
+        <v>44168.0</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4">
+        <v>44169.0</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4">
+        <v>44170.0</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4">
+        <v>44171.0</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4">
+        <v>44172.0</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4">
+        <v>44173.0</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4">
+        <v>44174.0</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4">
+        <v>44175.0</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4">
+        <v>44176.0</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4">
+        <v>44177.0</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4">
+        <v>44178.0</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4">
+        <v>44179.0</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4">
+        <v>44180.0</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4">
+        <v>44181.0</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4">
+        <v>44182.0</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4">
+        <v>44183.0</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4">
+        <v>44184.0</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4">
+        <v>44185.0</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4">
+        <v>44186.0</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4">
+        <v>44187.0</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4">
+        <v>44188.0</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4">
+        <v>44189.0</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4">
+        <v>44190.0</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4">
+        <v>44191.0</v>
+      </c>
+      <c r="B107" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4">
+        <v>44192.0</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4">
+        <v>44193.0</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4">
+        <v>44194.0</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4">
+        <v>44195.0</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4">
+        <v>44196.0</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4">
+        <v>44198.0</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4">
+        <v>44199.0</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4">
+        <v>44200.0</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4">
+        <v>44201.0</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4">
+        <v>44202.0</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4">
+        <v>44203.0</v>
+      </c>
+      <c r="B119" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4">
+        <v>44204.0</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4">
+        <v>44205.0</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
